--- a/Output/future_rev.xlsx
+++ b/Output/future_rev.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00F1F1F1"/>
     </font>
   </fonts>
-  <fills count="76">
+  <fills count="77">
     <fill>
       <patternFill/>
     </fill>
@@ -54,27 +54,260 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00E0EEE0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0CEA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E7F1E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0075B975"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007ABC7A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EFE2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBEBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AAD3AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9F2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2E7D2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F2E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0085C185"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00E0EEDF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A0CEA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0EEE0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E7F1E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0075B975"/>
+        <fgColor rgb="00D0E6D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C9E3C9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDECDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B6D9B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDDCBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B8DAB8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CDE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CEE5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BCC9B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDDDBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B4D8B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007CBD7C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092C892"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6E9D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0097CA97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A5D1A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A9D3A9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D7E9D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0091C791"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0080BF80"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5E9D5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A6D2A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DFEDDF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0088C388"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B7DAB7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6F1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9EAD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AFD6AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0D6B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B5D9B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CFE5CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C2DFC2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0093C893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEEDDE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D1E6D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008AC48A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E4F0E4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1EEE1"/>
       </patternFill>
     </fill>
     <fill>
@@ -84,135 +317,92 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00ABD4AB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ECE9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C7E1C7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3EFE3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007DBD7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B9DBB9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B1D7B1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="008BC48B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C0DEC0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A3D0A3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B2D7B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BCDCBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8EAD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D3E7D3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="007ABC7A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E2EFE2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBEBDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AAD3AA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D1E6D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0085C185"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0E6D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D5E9D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CBE4CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E1EEE1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B6D9B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E8F2E8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0DEC0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDDBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B8DAB8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CDE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B4D8B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BCC9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B3D8B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007DBD7D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0099CB99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9EAD9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097CA97"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A5D1A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7D2A7"/>
+        <fgColor rgb="00ADD5AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCE4CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0096C996"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EAF2EA"/>
       </patternFill>
     </fill>
     <fill>
@@ -222,192 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0091C791"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E9F2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0083C083"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDECDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D8EAD8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A9D3A9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DFEDDF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0088C388"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7DAB7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BADBBA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E6F1E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BDDCBD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B9DBB9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B0D6B0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C2DFC2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0093C893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0086C286"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E4F0E4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0089C389"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DEEDDE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A6D2A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BCDCBC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DCECDC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABD4AB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C9E3C9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E3EFE3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="008FC68F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BFDEBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B5D9B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CFE5CF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D6E9D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C5E0C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00AED5AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C8E2C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CCE4CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0096C996"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00EAF2EA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0092C892"/>
       </patternFill>
     </fill>
   </fills>
@@ -429,85 +434,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="43" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="61" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1034,94 +1040,94 @@
       <c r="B3" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>187.12</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>239.12</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>527.16</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>1030.42</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>1305.24</v>
-      </c>
-      <c r="H3" s="8" t="n">
+      <c r="C3" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>410.74</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>685.89</v>
+      </c>
+      <c r="G3" s="6" t="n">
+        <v>723.63</v>
+      </c>
+      <c r="H3" s="7" t="n">
         <v>1323.57</v>
       </c>
-      <c r="I3" s="9" t="n">
-        <v>1935.45</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>2742.46</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>2433.31</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <v>1560.15</v>
-      </c>
-      <c r="M3" s="13" t="n">
-        <v>1175.43</v>
-      </c>
-      <c r="N3" s="14" t="n">
-        <v>1197.48</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <v>1407.37</v>
-      </c>
-      <c r="P3" s="16" t="n">
-        <v>2052.22</v>
-      </c>
-      <c r="Q3" s="17" t="n">
-        <v>2353.04</v>
-      </c>
-      <c r="R3" s="18" t="n">
-        <v>2294.78</v>
-      </c>
-      <c r="S3" s="19" t="n">
-        <v>1619.73</v>
-      </c>
-      <c r="T3" s="20" t="n">
+      <c r="I3" s="8" t="n">
+        <v>2107.61</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>2793.27</v>
+      </c>
+      <c r="K3" s="10" t="n">
+        <v>2539.72</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <v>1642.15</v>
+      </c>
+      <c r="M3" s="12" t="n">
+        <v>1253.43</v>
+      </c>
+      <c r="N3" s="13" t="n">
+        <v>1236.48</v>
+      </c>
+      <c r="O3" s="14" t="n">
+        <v>1446.37</v>
+      </c>
+      <c r="P3" s="15" t="n">
+        <v>2091.47</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>2301.04</v>
+      </c>
+      <c r="R3" s="17" t="n">
+        <v>2147.58</v>
+      </c>
+      <c r="S3" s="18" t="n">
+        <v>1578.73</v>
+      </c>
+      <c r="T3" s="19" t="n">
         <v>1123.88</v>
       </c>
-      <c r="U3" s="21" t="n">
-        <v>817.97</v>
-      </c>
-      <c r="V3" s="22" t="n">
+      <c r="U3" s="20" t="n">
+        <v>891.0700000000001</v>
+      </c>
+      <c r="V3" s="21" t="n">
         <v>1206.53</v>
       </c>
-      <c r="W3" s="23" t="n">
+      <c r="W3" s="22" t="n">
         <v>1041.8</v>
       </c>
-      <c r="X3" s="22" t="n">
+      <c r="X3" s="21" t="n">
         <v>1220.45</v>
       </c>
-      <c r="Y3" s="24" t="n">
+      <c r="Y3" s="13" t="n">
         <v>1236.3</v>
       </c>
-      <c r="Z3" s="25" t="n">
+      <c r="Z3" s="23" t="n">
         <v>689.4400000000001</v>
       </c>
-      <c r="AA3" s="26" t="n">
-        <v>415.7</v>
-      </c>
-      <c r="AB3" s="27" t="n">
+      <c r="AA3" s="24" t="n">
+        <v>454.7</v>
+      </c>
+      <c r="AB3" s="25" t="n">
         <v>378.7</v>
       </c>
-      <c r="AC3" s="28" t="n">
+      <c r="AC3" s="25" t="n">
         <v>372.68</v>
       </c>
-      <c r="AD3" s="29" t="n">
+      <c r="AD3" s="26" t="n">
         <v>435.4</v>
       </c>
-      <c r="AE3" s="30" t="n">
+      <c r="AE3" s="6" t="n">
         <v>719.09</v>
       </c>
-      <c r="AF3" s="31" t="inlineStr"/>
+      <c r="AF3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1129,96 +1135,96 @@
           <t>Jul</t>
         </is>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="28" t="n">
         <v>530.24</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="28" t="n">
         <v>543.51</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="29" t="n">
         <v>575.0599999999999</v>
       </c>
-      <c r="E4" s="35" t="n">
-        <v>701.95</v>
-      </c>
-      <c r="F4" s="36" t="n">
-        <v>975.27</v>
-      </c>
-      <c r="G4" s="37" t="n">
-        <v>1683.56</v>
-      </c>
-      <c r="H4" s="38" t="n">
-        <v>2309.25</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>2462.87</v>
-      </c>
-      <c r="J4" s="39" t="n">
+      <c r="E4" s="30" t="n">
+        <v>744.95</v>
+      </c>
+      <c r="F4" s="19" t="n">
+        <v>1018.27</v>
+      </c>
+      <c r="G4" s="31" t="n">
+        <v>1730.56</v>
+      </c>
+      <c r="H4" s="32" t="n">
+        <v>2365.25</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>2518.87</v>
+      </c>
+      <c r="J4" s="18" t="n">
         <v>1431.28</v>
       </c>
-      <c r="K4" s="28" t="n">
+      <c r="K4" s="25" t="n">
         <v>342.32</v>
       </c>
-      <c r="L4" s="40" t="n">
+      <c r="L4" s="33" t="n">
         <v>297.75</v>
       </c>
-      <c r="M4" s="41" t="n">
+      <c r="M4" s="34" t="n">
         <v>146</v>
       </c>
-      <c r="N4" s="42" t="n">
+      <c r="N4" s="35" t="n">
         <v>109</v>
       </c>
-      <c r="O4" s="32" t="n">
+      <c r="O4" s="28" t="n">
         <v>511.9</v>
       </c>
-      <c r="P4" s="32" t="n">
+      <c r="P4" s="36" t="n">
         <v>506.65</v>
       </c>
-      <c r="Q4" s="43" t="n">
+      <c r="Q4" s="37" t="n">
         <v>186.4</v>
       </c>
-      <c r="R4" s="31" t="inlineStr"/>
+      <c r="R4" s="27" t="inlineStr"/>
       <c r="S4" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="T4" s="27" t="n">
+      <c r="T4" s="25" t="n">
         <v>347.19</v>
       </c>
-      <c r="U4" s="44" t="n">
+      <c r="U4" s="38" t="n">
         <v>208.19</v>
       </c>
-      <c r="V4" s="45" t="n">
+      <c r="V4" s="3" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="W4" s="44" t="n">
+      <c r="W4" s="38" t="n">
         <v>201.6</v>
       </c>
-      <c r="X4" s="44" t="n">
+      <c r="X4" s="38" t="n">
         <v>203</v>
       </c>
-      <c r="Y4" s="41" t="n">
+      <c r="Y4" s="34" t="n">
         <v>140.15</v>
       </c>
-      <c r="Z4" s="42" t="n">
+      <c r="Z4" s="35" t="n">
         <v>110.3</v>
       </c>
-      <c r="AA4" s="33" t="n">
+      <c r="AA4" s="39" t="n">
         <v>546.1800000000001</v>
       </c>
-      <c r="AB4" s="46" t="n">
-        <v>1304.85</v>
-      </c>
-      <c r="AC4" s="47" t="n">
-        <v>1786.94</v>
-      </c>
-      <c r="AD4" s="48" t="n">
-        <v>1861.71</v>
-      </c>
-      <c r="AE4" s="23" t="n">
-        <v>950.29</v>
-      </c>
-      <c r="AF4" s="49" t="n">
-        <v>80.27000000000001</v>
+      <c r="AB4" s="40" t="n">
+        <v>1345.85</v>
+      </c>
+      <c r="AC4" s="41" t="n">
+        <v>1838.94</v>
+      </c>
+      <c r="AD4" s="8" t="n">
+        <v>1913.71</v>
+      </c>
+      <c r="AE4" s="42" t="n">
+        <v>991.29</v>
+      </c>
+      <c r="AF4" s="35" t="n">
+        <v>119.27</v>
       </c>
     </row>
     <row r="5">
@@ -1227,95 +1233,95 @@
           <t>Aug</t>
         </is>
       </c>
-      <c r="B5" s="50" t="n">
+      <c r="B5" s="43" t="n">
         <v>158.05</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>43.1</v>
       </c>
-      <c r="D5" s="51" t="n">
+      <c r="D5" s="35" t="n">
         <v>80.5</v>
       </c>
-      <c r="E5" s="52" t="n">
-        <v>141.84</v>
-      </c>
-      <c r="F5" s="52" t="n">
-        <v>141.84</v>
-      </c>
-      <c r="G5" s="31" t="inlineStr"/>
-      <c r="H5" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="I5" s="53" t="n">
-        <v>226.4</v>
-      </c>
-      <c r="J5" s="29" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="K5" s="54" t="n">
-        <v>230.8</v>
-      </c>
-      <c r="L5" s="55" t="n">
-        <v>1059.96</v>
-      </c>
-      <c r="M5" s="10" t="n">
-        <v>1259.16</v>
-      </c>
-      <c r="N5" s="15" t="n">
-        <v>654.66</v>
-      </c>
-      <c r="O5" s="30" t="n">
+      <c r="E5" s="25" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="F5" s="25" t="n">
+        <v>193.84</v>
+      </c>
+      <c r="G5" s="27" t="inlineStr"/>
+      <c r="H5" s="35" t="n">
+        <v>78</v>
+      </c>
+      <c r="I5" s="44" t="n">
+        <v>265.4</v>
+      </c>
+      <c r="J5" s="45" t="n">
+        <v>256.9</v>
+      </c>
+      <c r="K5" s="36" t="n">
+        <v>271.8</v>
+      </c>
+      <c r="L5" s="46" t="n">
+        <v>1111.96</v>
+      </c>
+      <c r="M5" s="9" t="n">
+        <v>1311.16</v>
+      </c>
+      <c r="N5" s="14" t="n">
+        <v>695.66</v>
+      </c>
+      <c r="O5" s="23" t="n">
         <v>349.36</v>
       </c>
-      <c r="P5" s="28" t="n">
+      <c r="P5" s="47" t="n">
         <v>186.36</v>
       </c>
-      <c r="Q5" s="56" t="n">
+      <c r="Q5" s="48" t="n">
         <v>147.36</v>
       </c>
-      <c r="R5" s="28" t="n">
+      <c r="R5" s="47" t="n">
         <v>184</v>
       </c>
-      <c r="S5" s="43" t="n">
+      <c r="S5" s="49" t="n">
         <v>112.2</v>
       </c>
-      <c r="T5" s="56" t="n">
+      <c r="T5" s="48" t="n">
         <v>149.6</v>
       </c>
-      <c r="U5" s="42" t="n">
+      <c r="U5" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="V5" s="56" t="n">
+      <c r="V5" s="48" t="n">
         <v>147.53</v>
       </c>
-      <c r="W5" s="27" t="n">
+      <c r="W5" s="25" t="n">
         <v>194.78</v>
       </c>
-      <c r="X5" s="28" t="n">
+      <c r="X5" s="47" t="n">
         <v>190.78</v>
       </c>
-      <c r="Y5" s="54" t="n">
+      <c r="Y5" s="24" t="n">
         <v>237.18</v>
       </c>
-      <c r="Z5" s="57" t="n">
+      <c r="Z5" s="50" t="n">
         <v>249</v>
       </c>
-      <c r="AA5" s="58" t="n">
+      <c r="AA5" s="20" t="n">
         <v>437.15</v>
       </c>
-      <c r="AB5" s="59" t="n">
+      <c r="AB5" s="30" t="n">
         <v>404.4</v>
       </c>
-      <c r="AC5" s="57" t="n">
+      <c r="AC5" s="45" t="n">
         <v>256</v>
       </c>
-      <c r="AD5" s="28" t="n">
+      <c r="AD5" s="47" t="n">
         <v>188</v>
       </c>
-      <c r="AE5" s="28" t="n">
+      <c r="AE5" s="47" t="n">
         <v>188</v>
       </c>
-      <c r="AF5" s="5" t="n">
+      <c r="AF5" s="45" t="n">
         <v>258.4</v>
       </c>
     </row>
@@ -1325,97 +1331,97 @@
           <t>Sep</t>
         </is>
       </c>
-      <c r="B6" s="60" t="n">
+      <c r="B6" s="51" t="n">
         <v>579.15</v>
       </c>
-      <c r="C6" s="61" t="n">
+      <c r="C6" s="52" t="n">
         <v>834.38</v>
       </c>
-      <c r="D6" s="62" t="n">
+      <c r="D6" s="53" t="n">
         <v>757.6799999999999</v>
       </c>
-      <c r="E6" s="63" t="n">
+      <c r="E6" s="54" t="n">
         <v>433.18</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="13" t="n">
         <v>419.25</v>
       </c>
-      <c r="G6" s="36" t="n">
+      <c r="G6" s="42" t="n">
         <v>383.55</v>
       </c>
-      <c r="H6" s="63" t="n">
+      <c r="H6" s="54" t="n">
         <v>428.95</v>
       </c>
-      <c r="I6" s="64" t="n">
+      <c r="I6" s="55" t="n">
         <v>638.75</v>
       </c>
-      <c r="J6" s="65" t="n">
+      <c r="J6" s="17" t="n">
         <v>679.3099999999999</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="18" t="n">
         <v>517.95</v>
       </c>
-      <c r="L6" s="24" t="n">
+      <c r="L6" s="12" t="n">
         <v>425.7</v>
       </c>
-      <c r="M6" s="66" t="n">
+      <c r="M6" s="19" t="n">
         <v>390</v>
       </c>
-      <c r="N6" s="15" t="n">
+      <c r="N6" s="56" t="n">
         <v>471.03</v>
       </c>
-      <c r="O6" s="67" t="n">
+      <c r="O6" s="57" t="n">
         <v>350.03</v>
       </c>
-      <c r="P6" s="68" t="n">
+      <c r="P6" s="58" t="n">
         <v>547.42</v>
       </c>
-      <c r="Q6" s="68" t="n">
+      <c r="Q6" s="58" t="n">
         <v>547.42</v>
       </c>
-      <c r="R6" s="69" t="n">
+      <c r="R6" s="47" t="n">
         <v>163.97</v>
       </c>
-      <c r="S6" s="36" t="n">
+      <c r="S6" s="42" t="n">
         <v>379.85</v>
       </c>
-      <c r="T6" s="70" t="n">
+      <c r="T6" s="59" t="n">
         <v>502.4</v>
       </c>
-      <c r="U6" s="21" t="n">
+      <c r="U6" s="30" t="n">
         <v>299.25</v>
       </c>
-      <c r="V6" s="63" t="n">
-        <v>428.05</v>
-      </c>
-      <c r="W6" s="70" t="n">
-        <v>507.25</v>
-      </c>
-      <c r="X6" s="20" t="n">
+      <c r="V6" s="60" t="n">
+        <v>469.05</v>
+      </c>
+      <c r="W6" s="61" t="n">
+        <v>559.25</v>
+      </c>
+      <c r="X6" s="62" t="n">
         <v>395.25</v>
       </c>
       <c r="Y6" s="2" t="n">
         <v>76.95</v>
       </c>
-      <c r="Z6" s="41" t="n">
+      <c r="Z6" s="34" t="n">
         <v>108.1</v>
       </c>
-      <c r="AA6" s="41" t="n">
+      <c r="AA6" s="34" t="n">
         <v>108.1</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="AC6" s="66" t="n">
+      <c r="AC6" s="19" t="n">
         <v>387.95</v>
       </c>
-      <c r="AD6" s="71" t="n">
+      <c r="AD6" s="63" t="n">
         <v>699.6</v>
       </c>
-      <c r="AE6" s="10" t="n">
+      <c r="AE6" s="9" t="n">
         <v>868.6</v>
       </c>
-      <c r="AF6" s="31" t="inlineStr"/>
+      <c r="AF6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1423,31 +1429,31 @@
           <t>Oct</t>
         </is>
       </c>
-      <c r="B7" s="56" t="n">
+      <c r="B7" s="43" t="n">
         <v>244</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="64" t="n">
         <v>208</v>
       </c>
-      <c r="D7" s="50" t="n">
+      <c r="D7" s="65" t="n">
         <v>249</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="66" t="n">
         <v>602</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="9" t="n">
         <v>2231</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <v>2231</v>
       </c>
-      <c r="I7" s="68" t="n">
+      <c r="I7" s="58" t="n">
         <v>1347</v>
       </c>
-      <c r="J7" s="45" t="n">
+      <c r="J7" s="3" t="n">
         <v>82</v>
       </c>
       <c r="K7" s="2" t="n">
@@ -1456,45 +1462,49 @@
       <c r="L7" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="M7" s="53" t="n">
+      <c r="M7" s="24" t="n">
         <v>372</v>
       </c>
-      <c r="N7" s="13" t="n">
-        <v>964</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>964</v>
-      </c>
-      <c r="P7" s="32" t="n">
-        <v>474</v>
-      </c>
-      <c r="Q7" s="31" t="inlineStr"/>
-      <c r="R7" s="31" t="inlineStr"/>
-      <c r="S7" s="43" t="n">
-        <v>164</v>
-      </c>
-      <c r="T7" s="68" t="n">
-        <v>1342</v>
-      </c>
-      <c r="U7" s="17" t="n">
-        <v>1918</v>
+      <c r="N7" s="67" t="n">
+        <v>1045</v>
+      </c>
+      <c r="O7" s="67" t="n">
+        <v>1045</v>
+      </c>
+      <c r="P7" s="68" t="n">
+        <v>526</v>
+      </c>
+      <c r="Q7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="R7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="S7" s="64" t="n">
+        <v>205</v>
+      </c>
+      <c r="T7" s="69" t="n">
+        <v>1466</v>
+      </c>
+      <c r="U7" s="70" t="n">
+        <v>2080</v>
       </c>
       <c r="V7" s="71" t="n">
-        <v>1756</v>
+        <v>1837</v>
       </c>
       <c r="W7" s="72" t="n">
-        <v>1041</v>
-      </c>
-      <c r="X7" s="41" t="n">
-        <v>139</v>
+        <v>1093</v>
+      </c>
+      <c r="X7" s="38" t="n">
+        <v>180</v>
       </c>
       <c r="Y7" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="Z7" s="40" t="n">
+      <c r="Z7" s="33" t="n">
         <v>271</v>
       </c>
-      <c r="AA7" s="54" t="n">
+      <c r="AA7" s="50" t="n">
         <v>395</v>
       </c>
       <c r="AB7" s="73" t="n">
@@ -1503,7 +1513,7 @@
       <c r="AC7" s="73" t="n">
         <v>613</v>
       </c>
-      <c r="AD7" s="29" t="n">
+      <c r="AD7" s="26" t="n">
         <v>365</v>
       </c>
       <c r="AE7" s="2" t="n">
@@ -1519,79 +1529,79 @@
           <t>Nov</t>
         </is>
       </c>
-      <c r="B8" s="51" t="n">
+      <c r="B8" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="C8" s="26" t="n">
+      <c r="C8" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="D8" s="74" t="n">
+      <c r="D8" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="E8" s="74" t="n">
+      <c r="E8" s="5" t="n">
         <v>81</v>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="43" t="n">
         <v>52</v>
       </c>
-      <c r="G8" s="51" t="n">
+      <c r="G8" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="H8" s="51" t="n">
+      <c r="H8" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="I8" s="51" t="n">
+      <c r="I8" s="74" t="n">
         <v>41</v>
       </c>
-      <c r="J8" s="26" t="n">
+      <c r="J8" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="K8" s="31" t="inlineStr"/>
-      <c r="L8" s="31" t="inlineStr"/>
-      <c r="M8" s="31" t="inlineStr"/>
-      <c r="N8" s="31" t="inlineStr"/>
-      <c r="O8" s="31" t="inlineStr"/>
-      <c r="P8" s="31" t="inlineStr"/>
-      <c r="Q8" s="31" t="inlineStr"/>
-      <c r="R8" s="31" t="inlineStr"/>
-      <c r="S8" s="10" t="n">
+      <c r="K8" s="27" t="inlineStr"/>
+      <c r="L8" s="27" t="inlineStr"/>
+      <c r="M8" s="27" t="inlineStr"/>
+      <c r="N8" s="27" t="inlineStr"/>
+      <c r="O8" s="27" t="inlineStr"/>
+      <c r="P8" s="27" t="inlineStr"/>
+      <c r="Q8" s="27" t="inlineStr"/>
+      <c r="R8" s="27" t="inlineStr"/>
+      <c r="S8" s="9" t="n">
         <v>236</v>
       </c>
-      <c r="T8" s="42" t="n">
+      <c r="T8" s="35" t="n">
         <v>39</v>
       </c>
-      <c r="U8" s="31" t="inlineStr"/>
+      <c r="U8" s="27" t="inlineStr"/>
       <c r="V8" s="2" t="n">
         <v>34</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="X8" s="32" t="n">
+      <c r="X8" s="28" t="n">
         <v>74.87</v>
       </c>
-      <c r="Y8" s="25" t="n">
+      <c r="Y8" s="23" t="n">
         <v>81.67</v>
       </c>
-      <c r="Z8" s="25" t="n">
+      <c r="Z8" s="23" t="n">
         <v>81.67</v>
       </c>
-      <c r="AA8" s="42" t="n">
+      <c r="AA8" s="35" t="n">
         <v>39.17</v>
       </c>
-      <c r="AB8" s="42" t="n">
+      <c r="AB8" s="35" t="n">
         <v>39.16</v>
       </c>
-      <c r="AC8" s="49" t="n">
+      <c r="AC8" s="75" t="n">
         <v>37</v>
       </c>
-      <c r="AD8" s="49" t="n">
+      <c r="AD8" s="75" t="n">
         <v>37</v>
       </c>
-      <c r="AE8" s="42" t="n">
+      <c r="AE8" s="35" t="n">
         <v>39</v>
       </c>
-      <c r="AF8" s="31" t="inlineStr"/>
+      <c r="AF8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1599,20 +1609,20 @@
           <t>Dec</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="C9" s="75" t="n">
+      <c r="C9" s="76" t="n">
         <v>42.5</v>
       </c>
-      <c r="D9" s="31" t="inlineStr"/>
-      <c r="E9" s="31" t="inlineStr"/>
-      <c r="F9" s="31" t="inlineStr"/>
-      <c r="G9" s="31" t="inlineStr"/>
-      <c r="H9" s="31" t="inlineStr"/>
-      <c r="I9" s="31" t="inlineStr"/>
-      <c r="J9" s="31" t="inlineStr"/>
-      <c r="K9" s="32" t="n">
+      <c r="D9" s="27" t="inlineStr"/>
+      <c r="E9" s="27" t="inlineStr"/>
+      <c r="F9" s="27" t="inlineStr"/>
+      <c r="G9" s="27" t="inlineStr"/>
+      <c r="H9" s="27" t="inlineStr"/>
+      <c r="I9" s="27" t="inlineStr"/>
+      <c r="J9" s="27" t="inlineStr"/>
+      <c r="K9" s="28" t="n">
         <v>39</v>
       </c>
       <c r="L9" s="2" t="n">
@@ -1621,33 +1631,33 @@
       <c r="M9" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="N9" s="31" t="inlineStr"/>
-      <c r="O9" s="31" t="inlineStr"/>
-      <c r="P9" s="31" t="inlineStr"/>
-      <c r="Q9" s="31" t="inlineStr"/>
-      <c r="R9" s="31" t="inlineStr"/>
-      <c r="S9" s="31" t="inlineStr"/>
-      <c r="T9" s="31" t="inlineStr"/>
-      <c r="U9" s="31" t="inlineStr"/>
-      <c r="V9" s="31" t="inlineStr"/>
-      <c r="W9" s="31" t="inlineStr"/>
-      <c r="X9" s="31" t="inlineStr"/>
-      <c r="Y9" s="31" t="inlineStr"/>
+      <c r="N9" s="27" t="inlineStr"/>
+      <c r="O9" s="27" t="inlineStr"/>
+      <c r="P9" s="27" t="inlineStr"/>
+      <c r="Q9" s="27" t="inlineStr"/>
+      <c r="R9" s="27" t="inlineStr"/>
+      <c r="S9" s="27" t="inlineStr"/>
+      <c r="T9" s="27" t="inlineStr"/>
+      <c r="U9" s="27" t="inlineStr"/>
+      <c r="V9" s="27" t="inlineStr"/>
+      <c r="W9" s="27" t="inlineStr"/>
+      <c r="X9" s="27" t="inlineStr"/>
+      <c r="Y9" s="27" t="inlineStr"/>
       <c r="Z9" s="2" t="n">
         <v>37</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="AB9" s="31" t="inlineStr"/>
-      <c r="AC9" s="31" t="inlineStr"/>
-      <c r="AD9" s="10" t="n">
+      <c r="AB9" s="27" t="inlineStr"/>
+      <c r="AC9" s="27" t="inlineStr"/>
+      <c r="AD9" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="AE9" s="10" t="n">
+      <c r="AE9" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="AF9" s="32" t="n">
+      <c r="AF9" s="28" t="n">
         <v>39</v>
       </c>
     </row>
@@ -1666,42 +1676,42 @@
       <c r="D10" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="35" t="n">
         <v>39</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="H10" s="31" t="inlineStr"/>
-      <c r="I10" s="31" t="inlineStr"/>
-      <c r="J10" s="31" t="inlineStr"/>
-      <c r="K10" s="31" t="inlineStr"/>
-      <c r="L10" s="31" t="inlineStr"/>
-      <c r="M10" s="31" t="inlineStr"/>
-      <c r="N10" s="31" t="inlineStr"/>
-      <c r="O10" s="31" t="inlineStr"/>
-      <c r="P10" s="31" t="inlineStr"/>
-      <c r="Q10" s="31" t="inlineStr"/>
-      <c r="R10" s="31" t="inlineStr"/>
-      <c r="S10" s="31" t="inlineStr"/>
-      <c r="T10" s="31" t="inlineStr"/>
-      <c r="U10" s="31" t="inlineStr"/>
-      <c r="V10" s="31" t="inlineStr"/>
-      <c r="W10" s="31" t="inlineStr"/>
-      <c r="X10" s="10" t="n">
+      <c r="H10" s="27" t="inlineStr"/>
+      <c r="I10" s="27" t="inlineStr"/>
+      <c r="J10" s="27" t="inlineStr"/>
+      <c r="K10" s="27" t="inlineStr"/>
+      <c r="L10" s="27" t="inlineStr"/>
+      <c r="M10" s="27" t="inlineStr"/>
+      <c r="N10" s="27" t="inlineStr"/>
+      <c r="O10" s="27" t="inlineStr"/>
+      <c r="P10" s="27" t="inlineStr"/>
+      <c r="Q10" s="27" t="inlineStr"/>
+      <c r="R10" s="27" t="inlineStr"/>
+      <c r="S10" s="27" t="inlineStr"/>
+      <c r="T10" s="27" t="inlineStr"/>
+      <c r="U10" s="27" t="inlineStr"/>
+      <c r="V10" s="27" t="inlineStr"/>
+      <c r="W10" s="27" t="inlineStr"/>
+      <c r="X10" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="Y10" s="31" t="inlineStr"/>
-      <c r="Z10" s="31" t="inlineStr"/>
-      <c r="AA10" s="31" t="inlineStr"/>
-      <c r="AB10" s="31" t="inlineStr"/>
-      <c r="AC10" s="31" t="inlineStr"/>
-      <c r="AD10" s="31" t="inlineStr"/>
-      <c r="AE10" s="31" t="inlineStr"/>
-      <c r="AF10" s="31" t="inlineStr"/>
+      <c r="Y10" s="27" t="inlineStr"/>
+      <c r="Z10" s="27" t="inlineStr"/>
+      <c r="AA10" s="27" t="inlineStr"/>
+      <c r="AB10" s="27" t="inlineStr"/>
+      <c r="AC10" s="27" t="inlineStr"/>
+      <c r="AD10" s="27" t="inlineStr"/>
+      <c r="AE10" s="27" t="inlineStr"/>
+      <c r="AF10" s="27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Output/future_rev.xlsx
+++ b/Output/future_rev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -561,373 +561,373 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1148.89</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1253.01</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1430.72</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2568.03</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2782.93</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1676.38</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1334.57</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1027.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2913.47</v>
+        <v>955.45</v>
       </c>
       <c r="R2" t="n">
-        <v>2300.06</v>
+        <v>969.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1928.83</v>
+        <v>968.39</v>
       </c>
       <c r="T2" t="n">
-        <v>1208.38</v>
+        <v>1053.27</v>
       </c>
       <c r="U2" t="n">
-        <v>1195.55</v>
+        <v>592.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1554.52</v>
+        <v>677.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1215.37</v>
+        <v>905.17</v>
       </c>
       <c r="X2" t="n">
-        <v>1610.52</v>
+        <v>855.46</v>
       </c>
       <c r="Y2" t="n">
-        <v>1934.12</v>
+        <v>753.42</v>
       </c>
       <c r="Z2" t="n">
-        <v>968.16</v>
+        <v>1478.55</v>
       </c>
       <c r="AA2" t="n">
-        <v>571.9</v>
+        <v>1740.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>528.37</v>
+        <v>1114.77</v>
       </c>
       <c r="AC2" t="n">
-        <v>592.9</v>
+        <v>742</v>
       </c>
       <c r="AD2" t="n">
-        <v>640.6700000000001</v>
+        <v>489.75</v>
       </c>
       <c r="AE2" t="n">
-        <v>884.89</v>
+        <v>526.1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>991.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>829.8099999999999</v>
+        <v>1483.91</v>
       </c>
       <c r="C3" t="n">
-        <v>800.23</v>
+        <v>1879.41</v>
       </c>
       <c r="D3" t="n">
-        <v>870.24</v>
+        <v>1353.95</v>
       </c>
       <c r="E3" t="n">
-        <v>1083.55</v>
+        <v>493.89</v>
       </c>
       <c r="F3" t="n">
-        <v>1288.27</v>
+        <v>474.77</v>
       </c>
       <c r="G3" t="n">
-        <v>2094.57</v>
+        <v>443.32</v>
       </c>
       <c r="H3" t="n">
-        <v>2690.06</v>
+        <v>548.55</v>
       </c>
       <c r="I3" t="n">
-        <v>2891.27</v>
+        <v>1054.67</v>
       </c>
       <c r="J3" t="n">
-        <v>1749.06</v>
+        <v>1199.69</v>
       </c>
       <c r="K3" t="n">
-        <v>532.48</v>
+        <v>1025.38</v>
       </c>
       <c r="L3" t="n">
-        <v>417.8</v>
+        <v>891.25</v>
       </c>
       <c r="M3" t="n">
-        <v>266.05</v>
+        <v>1038.95</v>
       </c>
       <c r="N3" t="n">
-        <v>309.45</v>
+        <v>1173.73</v>
       </c>
       <c r="O3" t="n">
-        <v>786.71</v>
+        <v>1230.03</v>
       </c>
       <c r="P3" t="n">
-        <v>781.45</v>
+        <v>2251.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>383.1</v>
+        <v>1905.21</v>
       </c>
       <c r="R3" t="n">
-        <v>117</v>
+        <v>764.72</v>
       </c>
       <c r="S3" t="n">
-        <v>224.6</v>
+        <v>923.21</v>
       </c>
       <c r="T3" t="n">
-        <v>528.79</v>
+        <v>1046.92</v>
       </c>
       <c r="U3" t="n">
-        <v>436.59</v>
+        <v>786.12</v>
       </c>
       <c r="V3" t="n">
-        <v>290.9</v>
+        <v>931.89</v>
       </c>
       <c r="W3" t="n">
-        <v>406.07</v>
+        <v>1028.86</v>
       </c>
       <c r="X3" t="n">
-        <v>325.57</v>
+        <v>798.26</v>
       </c>
       <c r="Y3" t="n">
-        <v>141.85</v>
+        <v>564.65</v>
       </c>
       <c r="Z3" t="n">
-        <v>182.64</v>
+        <v>465.85</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.22</v>
+        <v>469.15</v>
       </c>
       <c r="AB3" t="n">
-        <v>1467.88</v>
+        <v>525</v>
       </c>
       <c r="AC3" t="n">
-        <v>2032.44</v>
+        <v>709.85</v>
       </c>
       <c r="AD3" t="n">
-        <v>2067.18</v>
+        <v>1244.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1126.29</v>
+        <v>1452.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>248.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.05</v>
+        <v>348</v>
       </c>
       <c r="C4" t="n">
-        <v>172.1</v>
+        <v>249</v>
       </c>
       <c r="D4" t="n">
-        <v>258.5</v>
+        <v>249</v>
       </c>
       <c r="E4" t="n">
-        <v>290.84</v>
+        <v>82</v>
       </c>
       <c r="F4" t="n">
-        <v>290.84</v>
+        <v>803</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>2397</v>
       </c>
       <c r="H4" t="n">
-        <v>117</v>
+        <v>2316</v>
       </c>
       <c r="I4" t="n">
-        <v>265.4</v>
+        <v>1269</v>
       </c>
       <c r="J4" t="n">
-        <v>334.9</v>
+        <v>119</v>
       </c>
       <c r="K4" t="n">
-        <v>271.8</v>
+        <v>119</v>
       </c>
       <c r="L4" t="n">
-        <v>1111.96</v>
+        <v>119</v>
       </c>
       <c r="M4" t="n">
-        <v>1367.16</v>
+        <v>1137</v>
       </c>
       <c r="N4" t="n">
-        <v>742.66</v>
+        <v>2509</v>
       </c>
       <c r="O4" t="n">
-        <v>616.0599999999999</v>
+        <v>2509</v>
       </c>
       <c r="P4" t="n">
-        <v>264.36</v>
+        <v>1586</v>
       </c>
       <c r="Q4" t="n">
-        <v>186.36</v>
+        <v>374</v>
       </c>
       <c r="R4" t="n">
-        <v>225</v>
+        <v>478</v>
       </c>
       <c r="S4" t="n">
-        <v>112.2</v>
+        <v>642</v>
       </c>
       <c r="T4" t="n">
-        <v>149.6</v>
+        <v>1732</v>
       </c>
       <c r="U4" t="n">
-        <v>68</v>
+        <v>2507</v>
       </c>
       <c r="V4" t="n">
-        <v>108.53</v>
+        <v>2621</v>
       </c>
       <c r="W4" t="n">
-        <v>191.48</v>
+        <v>1606</v>
       </c>
       <c r="X4" t="n">
-        <v>187.48</v>
+        <v>762</v>
       </c>
       <c r="Y4" t="n">
-        <v>267.58</v>
+        <v>123</v>
       </c>
       <c r="Z4" t="n">
-        <v>326.71</v>
+        <v>591</v>
       </c>
       <c r="AA4" t="n">
-        <v>657.66</v>
+        <v>989</v>
       </c>
       <c r="AB4" t="n">
-        <v>610.8099999999999</v>
+        <v>1305</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.65</v>
+        <v>1305</v>
       </c>
       <c r="AD4" t="n">
-        <v>297.65</v>
+        <v>704</v>
       </c>
       <c r="AE4" t="n">
-        <v>223.7</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="n">
-        <v>295.8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.0700000000001</v>
+        <v>123</v>
       </c>
       <c r="C5" t="n">
-        <v>1050.3</v>
+        <v>186</v>
       </c>
       <c r="D5" t="n">
-        <v>964.25</v>
+        <v>324</v>
       </c>
       <c r="E5" t="n">
-        <v>592.49</v>
+        <v>406</v>
       </c>
       <c r="F5" t="n">
-        <v>578.55</v>
+        <v>156</v>
       </c>
       <c r="G5" t="n">
-        <v>507.15</v>
+        <v>82</v>
       </c>
       <c r="H5" t="n">
-        <v>552.55</v>
+        <v>82</v>
       </c>
       <c r="I5" t="n">
-        <v>762.35</v>
+        <v>76</v>
       </c>
       <c r="J5" t="n">
-        <v>802.91</v>
+        <v>99</v>
       </c>
       <c r="K5" t="n">
-        <v>517.95</v>
+        <v>123</v>
       </c>
       <c r="L5" t="n">
-        <v>464.7</v>
+        <v>123</v>
       </c>
       <c r="M5" t="n">
-        <v>429</v>
+        <v>111</v>
       </c>
       <c r="N5" t="n">
-        <v>510.03</v>
+        <v>70</v>
       </c>
       <c r="O5" t="n">
-        <v>391.03</v>
+        <v>35</v>
       </c>
       <c r="P5" t="n">
-        <v>599.42</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>599.42</v>
+        <v>75.55</v>
       </c>
       <c r="R5" t="n">
-        <v>242.71</v>
+        <v>91.2</v>
       </c>
       <c r="S5" t="n">
-        <v>307.59</v>
+        <v>283</v>
       </c>
       <c r="T5" t="n">
-        <v>430.14</v>
+        <v>207.2</v>
       </c>
       <c r="U5" t="n">
-        <v>377.25</v>
+        <v>149.2</v>
       </c>
       <c r="V5" t="n">
-        <v>591.85</v>
+        <v>200</v>
       </c>
       <c r="W5" t="n">
-        <v>663.25</v>
+        <v>71</v>
       </c>
       <c r="X5" t="n">
-        <v>395.25</v>
+        <v>149.57</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.95</v>
+        <v>128.67</v>
       </c>
       <c r="Z5" t="n">
-        <v>108.1</v>
+        <v>172.87</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.1</v>
+        <v>113.87</v>
       </c>
       <c r="AB5" t="n">
-        <v>73.09999999999999</v>
+        <v>76.16</v>
       </c>
       <c r="AC5" t="n">
-        <v>387.95</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="n">
-        <v>699.6</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="n">
-        <v>868.6</v>
+        <v>74.7</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -936,135 +936,135 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>244</v>
+        <v>136.42</v>
       </c>
       <c r="C6" t="n">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>249</v>
+        <v>39</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
-        <v>664</v>
+        <v>68</v>
       </c>
       <c r="G6" t="n">
-        <v>2312</v>
+        <v>68</v>
       </c>
       <c r="H6" t="n">
-        <v>2312</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1347</v>
+        <v>132</v>
       </c>
       <c r="J6" t="n">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="K6" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="L6" t="n">
-        <v>41</v>
+        <v>160.7</v>
       </c>
       <c r="M6" t="n">
-        <v>611</v>
+        <v>160.7</v>
       </c>
       <c r="N6" t="n">
-        <v>1526</v>
+        <v>123.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1526</v>
+        <v>39</v>
       </c>
       <c r="P6" t="n">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>205</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>1466</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="U6" t="n">
-        <v>2080</v>
+        <v>39.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1837</v>
+        <v>78.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1093</v>
+        <v>86.25</v>
       </c>
       <c r="X6" t="n">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="Y6" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z6" t="n">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="n">
-        <v>395</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="n">
-        <v>613</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="n">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>365</v>
+        <v>47</v>
       </c>
       <c r="AE6" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1091,43 +1091,43 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="V7" t="n">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="W7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>74.87</v>
+        <v>111</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.67</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>81.67</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>39.17</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>39.16</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
@@ -1136,14 +1136,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1161,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>37.4</v>
       </c>
       <c r="K8" t="n">
-        <v>39</v>
+        <v>37.4</v>
       </c>
       <c r="L8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1200,95 +1200,95 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>243</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1327,9 +1327,309 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>198</v>
+      </c>
+      <c r="C10" t="n">
+        <v>198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>237</v>
+      </c>
+      <c r="E10" t="n">
+        <v>104.45</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1303.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1567.96</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1160.96</v>
+      </c>
+      <c r="I10" t="n">
+        <v>986.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>799.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>308</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>43</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>179</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>219</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>219</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>179</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_rev.xlsx
+++ b/Output/future_rev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,111 +436,114 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="D1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2024</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -561,504 +564,509 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1148.89</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1253.01</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1430.72</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2568.03</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2782.93</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1676.38</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1334.57</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1027.22</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>955.45</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>969.25</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>968.39</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.27</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>592.63</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>677.52</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>905.17</v>
+        <v>1173.24</v>
       </c>
       <c r="X2" t="n">
-        <v>855.46</v>
+        <v>1869.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>753.42</v>
+        <v>1507.96</v>
       </c>
       <c r="Z2" t="n">
-        <v>1478.55</v>
+        <v>2080.81</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.64</v>
+        <v>2015.33</v>
       </c>
       <c r="AB2" t="n">
-        <v>1114.77</v>
+        <v>932.17</v>
       </c>
       <c r="AC2" t="n">
-        <v>742</v>
+        <v>968.77</v>
       </c>
       <c r="AD2" t="n">
-        <v>489.75</v>
+        <v>958.28</v>
       </c>
       <c r="AE2" t="n">
-        <v>526.1</v>
+        <v>1245.14</v>
       </c>
       <c r="AF2" t="n">
-        <v>991.3</v>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2024</v>
       </c>
       <c r="B3" t="n">
-        <v>1483.91</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1879.41</v>
+        <v>2328.29</v>
       </c>
       <c r="D3" t="n">
-        <v>1353.95</v>
+        <v>2583.04</v>
       </c>
       <c r="E3" t="n">
-        <v>493.89</v>
+        <v>1342.67</v>
       </c>
       <c r="F3" t="n">
-        <v>474.77</v>
+        <v>1119.16</v>
       </c>
       <c r="G3" t="n">
-        <v>443.32</v>
+        <v>1247</v>
       </c>
       <c r="H3" t="n">
-        <v>548.55</v>
+        <v>1821</v>
       </c>
       <c r="I3" t="n">
-        <v>1054.67</v>
+        <v>3373</v>
       </c>
       <c r="J3" t="n">
-        <v>1199.69</v>
+        <v>5043</v>
       </c>
       <c r="K3" t="n">
-        <v>1025.38</v>
+        <v>5310</v>
       </c>
       <c r="L3" t="n">
-        <v>891.25</v>
+        <v>3911</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.95</v>
+        <v>3101</v>
       </c>
       <c r="N3" t="n">
-        <v>1173.73</v>
+        <v>3101</v>
       </c>
       <c r="O3" t="n">
-        <v>1230.03</v>
+        <v>3047</v>
       </c>
       <c r="P3" t="n">
-        <v>2251.04</v>
+        <v>4163</v>
       </c>
       <c r="Q3" t="n">
-        <v>1905.21</v>
+        <v>4776</v>
       </c>
       <c r="R3" t="n">
-        <v>764.72</v>
+        <v>3189</v>
       </c>
       <c r="S3" t="n">
-        <v>923.21</v>
+        <v>1037</v>
       </c>
       <c r="T3" t="n">
-        <v>1046.92</v>
+        <v>567.15</v>
       </c>
       <c r="U3" t="n">
-        <v>786.12</v>
+        <v>766.3</v>
       </c>
       <c r="V3" t="n">
-        <v>931.89</v>
+        <v>1071.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1028.86</v>
+        <v>964.1</v>
       </c>
       <c r="X3" t="n">
-        <v>798.26</v>
+        <v>1395.95</v>
       </c>
       <c r="Y3" t="n">
-        <v>564.65</v>
+        <v>837.1900000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>465.85</v>
+        <v>597.37</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.15</v>
+        <v>708.0799999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>525</v>
+        <v>472.08</v>
       </c>
       <c r="AC3" t="n">
-        <v>709.85</v>
+        <v>547.08</v>
       </c>
       <c r="AD3" t="n">
-        <v>1244.5</v>
+        <v>829.24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1452.35</v>
+        <v>1170.24</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1192.01</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>514.92</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>249</v>
+        <v>1182.76</v>
       </c>
       <c r="D4" t="n">
-        <v>249</v>
+        <v>1425.95</v>
       </c>
       <c r="E4" t="n">
-        <v>82</v>
+        <v>1879.3</v>
       </c>
       <c r="F4" t="n">
-        <v>803</v>
+        <v>2431.5</v>
       </c>
       <c r="G4" t="n">
-        <v>2397</v>
+        <v>4043.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2316</v>
+        <v>4405.41</v>
       </c>
       <c r="I4" t="n">
-        <v>1269</v>
+        <v>3525.55</v>
       </c>
       <c r="J4" t="n">
-        <v>119</v>
+        <v>2979.25</v>
       </c>
       <c r="K4" t="n">
-        <v>119</v>
+        <v>2935</v>
       </c>
       <c r="L4" t="n">
-        <v>119</v>
+        <v>1838.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1137</v>
+        <v>1234.2</v>
       </c>
       <c r="N4" t="n">
-        <v>2509</v>
+        <v>1533.7</v>
       </c>
       <c r="O4" t="n">
-        <v>2509</v>
+        <v>1413.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1586</v>
+        <v>728.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>374</v>
+        <v>414.2</v>
       </c>
       <c r="R4" t="n">
-        <v>478</v>
+        <v>466.7</v>
       </c>
       <c r="S4" t="n">
-        <v>642</v>
+        <v>604.41</v>
       </c>
       <c r="T4" t="n">
-        <v>1732</v>
+        <v>647.8099999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>2507</v>
+        <v>778.25</v>
       </c>
       <c r="V4" t="n">
-        <v>2621</v>
+        <v>344.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1606</v>
+        <v>297.63</v>
       </c>
       <c r="X4" t="n">
-        <v>762</v>
+        <v>252.22</v>
       </c>
       <c r="Y4" t="n">
-        <v>123</v>
+        <v>340.47</v>
       </c>
       <c r="Z4" t="n">
-        <v>591</v>
+        <v>340.47</v>
       </c>
       <c r="AA4" t="n">
-        <v>989</v>
+        <v>557.65</v>
       </c>
       <c r="AB4" t="n">
-        <v>1305</v>
+        <v>1648.75</v>
       </c>
       <c r="AC4" t="n">
-        <v>1305</v>
+        <v>1479.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>704</v>
+        <v>1285.35</v>
       </c>
       <c r="AE4" t="n">
-        <v>82</v>
+        <v>430.25</v>
       </c>
       <c r="AF4" t="n">
-        <v>164</v>
+        <v>390.4</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>186</v>
+        <v>425.7</v>
       </c>
       <c r="D5" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E5" t="n">
-        <v>406</v>
+        <v>749.9</v>
       </c>
       <c r="F5" t="n">
-        <v>156</v>
+        <v>637</v>
       </c>
       <c r="G5" t="n">
-        <v>82</v>
+        <v>502.95</v>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>270.95</v>
       </c>
       <c r="I5" t="n">
-        <v>76</v>
+        <v>270.95</v>
       </c>
       <c r="J5" t="n">
-        <v>99</v>
+        <v>270.95</v>
       </c>
       <c r="K5" t="n">
-        <v>123</v>
+        <v>296.95</v>
       </c>
       <c r="L5" t="n">
-        <v>123</v>
+        <v>1157.55</v>
       </c>
       <c r="M5" t="n">
-        <v>111</v>
+        <v>1117.6</v>
       </c>
       <c r="N5" t="n">
-        <v>70</v>
+        <v>656.8</v>
       </c>
       <c r="O5" t="n">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="n">
-        <v>75.55</v>
+        <v>84</v>
       </c>
       <c r="R5" t="n">
-        <v>91.2</v>
+        <v>280.4</v>
       </c>
       <c r="S5" t="n">
-        <v>283</v>
+        <v>612.86</v>
       </c>
       <c r="T5" t="n">
-        <v>207.2</v>
+        <v>667.86</v>
       </c>
       <c r="U5" t="n">
-        <v>149.2</v>
+        <v>353.51</v>
       </c>
       <c r="V5" t="n">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c r="W5" t="n">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="X5" t="n">
-        <v>149.57</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>128.67</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>172.87</v>
+        <v>340.35</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.87</v>
+        <v>180.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.16</v>
+        <v>201.45</v>
       </c>
       <c r="AC5" t="n">
-        <v>37</v>
+        <v>223.05</v>
       </c>
       <c r="AD5" t="n">
-        <v>71</v>
+        <v>142.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>74.7</v>
+        <v>181.25</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>270.75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>272.2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>136.42</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>132</v>
+        <v>272.2</v>
       </c>
       <c r="D6" t="n">
+        <v>199.61</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41</v>
+      </c>
+      <c r="L6" t="n">
         <v>39</v>
       </c>
-      <c r="E6" t="n">
-        <v>37</v>
-      </c>
-      <c r="F6" t="n">
-        <v>68</v>
-      </c>
-      <c r="G6" t="n">
-        <v>68</v>
-      </c>
-      <c r="H6" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>132</v>
-      </c>
-      <c r="J6" t="n">
-        <v>132</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>39</v>
+      </c>
+      <c r="N6" t="n">
+        <v>121</v>
+      </c>
+      <c r="O6" t="n">
+        <v>41</v>
+      </c>
+      <c r="P6" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>110</v>
+      </c>
+      <c r="R6" t="n">
+        <v>44</v>
+      </c>
+      <c r="S6" t="n">
+        <v>84</v>
+      </c>
+      <c r="T6" t="n">
         <v>78</v>
       </c>
-      <c r="L6" t="n">
-        <v>160.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>160.7</v>
-      </c>
-      <c r="N6" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>39</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>64.59999999999999</v>
-      </c>
-      <c r="U6" t="n">
-        <v>39.26</v>
-      </c>
       <c r="V6" t="n">
-        <v>78.25</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>86.25</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="AE6" t="n">
-        <v>47</v>
+        <v>416</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.59999999999999</v>
+        <v>362</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2024</v>
       </c>
       <c r="B7" t="n">
-        <v>73.59999999999999</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>383.3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>383.3</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>76.84999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.95</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.95</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1082,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1094,65 +1102,66 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>199</v>
+        <v>201.6</v>
       </c>
       <c r="V7" t="n">
-        <v>159</v>
+        <v>201.6</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="X7" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>248.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>829.11</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>873.15</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>873.15</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>521.1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2024</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>46.75</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>188.7</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>154.7</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1161,43 +1170,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>37.4</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>37.4</v>
+        <v>52</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>161.03</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>135.03</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>42.02</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>42.02</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>42.02</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,71 +1233,72 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>119.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>150.75</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>150.75</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2024</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36.55</v>
+      </c>
+      <c r="G9" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>266.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>149</v>
       </c>
-      <c r="E9" t="n">
-        <v>129</v>
-      </c>
-      <c r="F9" t="n">
-        <v>189</v>
-      </c>
-      <c r="G9" t="n">
-        <v>243</v>
-      </c>
-      <c r="H9" t="n">
-        <v>207</v>
-      </c>
-      <c r="I9" t="n">
-        <v>262</v>
-      </c>
-      <c r="J9" t="n">
-        <v>262</v>
-      </c>
-      <c r="K9" t="n">
-        <v>187</v>
-      </c>
       <c r="L9" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>715</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1297,89 +1307,90 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>107.85</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>80.95</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2024</v>
       </c>
       <c r="B10" t="n">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>104.45</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1303.85</v>
+        <v>320</v>
       </c>
       <c r="G10" t="n">
-        <v>1567.96</v>
+        <v>320</v>
       </c>
       <c r="H10" t="n">
-        <v>1160.96</v>
+        <v>211</v>
       </c>
       <c r="I10" t="n">
-        <v>986.2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>799.2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1394,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1409,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
@@ -1430,17 +1441,18 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2024</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1464,31 +1476,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M11" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1532,104 +1544,7 @@
       <c r="AF11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>179</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>219</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>219</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>179</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AG11" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/future_rev.xlsx
+++ b/Output/future_rev.xlsx
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1173.24</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1869.28</v>
+        <v>1906.28</v>
       </c>
       <c r="Y2" t="n">
-        <v>1507.96</v>
+        <v>1598.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>2080.81</v>
+        <v>2176.73</v>
       </c>
       <c r="AA2" t="n">
-        <v>2015.33</v>
+        <v>2171.33</v>
       </c>
       <c r="AB2" t="n">
         <v>932.17</v>
@@ -647,13 +647,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>2328.29</v>
+        <v>2477.29</v>
       </c>
       <c r="D3" t="n">
-        <v>2583.04</v>
+        <v>2732.04</v>
       </c>
       <c r="E3" t="n">
-        <v>1342.67</v>
+        <v>1378.37</v>
       </c>
       <c r="F3" t="n">
         <v>1119.16</v>
@@ -677,22 +677,22 @@
         <v>3911</v>
       </c>
       <c r="M3" t="n">
+        <v>3155</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3155</v>
+      </c>
+      <c r="O3" t="n">
         <v>3101</v>
       </c>
-      <c r="N3" t="n">
-        <v>3101</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3047</v>
-      </c>
       <c r="P3" t="n">
-        <v>4163</v>
+        <v>4242</v>
       </c>
       <c r="Q3" t="n">
-        <v>4776</v>
+        <v>4865</v>
       </c>
       <c r="R3" t="n">
-        <v>3189</v>
+        <v>3278</v>
       </c>
       <c r="S3" t="n">
         <v>1037</v>
@@ -710,34 +710,34 @@
         <v>964.1</v>
       </c>
       <c r="X3" t="n">
-        <v>1395.95</v>
+        <v>1447.95</v>
       </c>
       <c r="Y3" t="n">
-        <v>837.1900000000001</v>
+        <v>889.1900000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>597.37</v>
+        <v>638.37</v>
       </c>
       <c r="AA3" t="n">
-        <v>708.0799999999999</v>
+        <v>747.0799999999999</v>
       </c>
       <c r="AB3" t="n">
         <v>472.08</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.08</v>
+        <v>586.08</v>
       </c>
       <c r="AD3" t="n">
-        <v>829.24</v>
+        <v>870.24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1170.24</v>
+        <v>1274.24</v>
       </c>
       <c r="AF3" t="n">
-        <v>1192.01</v>
+        <v>1348.01</v>
       </c>
       <c r="AG3" t="n">
-        <v>514.92</v>
+        <v>602.92</v>
       </c>
     </row>
     <row r="4">
@@ -748,19 +748,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1182.76</v>
+        <v>1224.76</v>
       </c>
       <c r="D4" t="n">
         <v>1425.95</v>
       </c>
       <c r="E4" t="n">
-        <v>1879.3</v>
+        <v>1911.6</v>
       </c>
       <c r="F4" t="n">
         <v>2431.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4043.05</v>
+        <v>4132.05</v>
       </c>
       <c r="H4" t="n">
         <v>4405.41</v>
@@ -808,10 +808,10 @@
         <v>344.18</v>
       </c>
       <c r="W4" t="n">
-        <v>297.63</v>
+        <v>335.03</v>
       </c>
       <c r="X4" t="n">
-        <v>252.22</v>
+        <v>287.07</v>
       </c>
       <c r="Y4" t="n">
         <v>340.47</v>
@@ -897,13 +897,13 @@
         <v>280.4</v>
       </c>
       <c r="S5" t="n">
-        <v>612.86</v>
+        <v>384.1</v>
       </c>
       <c r="T5" t="n">
-        <v>667.86</v>
+        <v>439.1</v>
       </c>
       <c r="U5" t="n">
-        <v>353.51</v>
+        <v>124.75</v>
       </c>
       <c r="V5" t="n">
         <v>39</v>
